--- a/sequences/15_localizer.xlsx
+++ b/sequences/15_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>car</t>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
+    <t>car/car014.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
+    <t>dog/dog012.png</t>
+  </si>
+  <si>
+    <t>car/car012.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>car/car015.png</t>
+  </si>
+  <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>dog/dog003.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>flower/flower009.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>car/car003.png</t>
+  </si>
+  <si>
+    <t>car/car005.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
+    <t>dog/dog014.png</t>
   </si>
   <si>
     <t>flower/flower010.png</t>
   </si>
   <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>dog/dog013.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>face/face004.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>car/car008.png</t>
+  </si>
+  <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>flower/flower004.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>dog/dog010.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
     <t>face/face001.png</t>
   </si>
   <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
+    <t>flower/flower013.png</t>
   </si>
   <si>
     <t>car/car004.png</t>
   </si>
   <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
     <t>face/face005.png</t>
   </si>
   <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>car/car031.png</t>
+  </si>
+  <si>
+    <t>face/face028.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
+  </si>
+  <si>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>flower/flower023.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>face/face021.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>flower/flower020.png</t>
   </si>
   <si>
     <t>flower/flower022.png</t>
   </si>
   <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
+    <t>flower/flower024.png</t>
   </si>
   <si>
     <t>car/car022.png</t>
   </si>
   <si>
-    <t>face/face028.png</t>
+    <t>car/car017.png</t>
+  </si>
+  <si>
+    <t>dog/dog028.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>flower/flower016.png</t>
+  </si>
+  <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>face/face029.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>flower/flower025.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>car/car018.png</t>
+  </si>
+  <si>
+    <t>face/face030.png</t>
+  </si>
+  <si>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>car/car028.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>face/face020.png</t>
   </si>
   <si>
     <t>flower/flower031.png</t>
   </si>
   <si>
-    <t>dog/dog031.png</t>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>car/car027.png</t>
+  </si>
+  <si>
+    <t>face/face018.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
+    <t>flower/flower028.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
   </si>
   <si>
     <t>flower/flower018.png</t>
   </si>
   <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
     <t>flower/flower030.png</t>
   </si>
   <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>dog/dog023.png</t>
   </si>
   <si>
     <t>face/face016.png</t>
   </si>
   <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
+    <t>flower/flower032.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>car/car033.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>face/face038.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
+  </si>
+  <si>
+    <t>car/car040.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
+  </si>
+  <si>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>car/car039.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>car/car037.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
   </si>
   <si>
     <t>face/face033.png</t>
   </si>
   <si>
-    <t>face/face040.png</t>
+    <t>flower/flower039.png</t>
   </si>
   <si>
     <t>face/face043.png</t>
   </si>
   <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>face/face039.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
     <t>flower/flower038.png</t>
   </si>
   <si>
     <t>car/car032.png</t>
   </si>
   <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>flower/flower046.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>car/car045.png</t>
+  </si>
+  <si>
+    <t>car/car043.png</t>
+  </si>
+  <si>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
     <t>car/car035.png</t>
   </si>
   <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
+    <t>face/face046.png</t>
+  </si>
+  <si>
+    <t>face/face047.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>dog/dog036.png</t>
   </si>
   <si>
     <t>dog/dog034.png</t>
   </si>
   <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>car/car059.png</t>
+  </si>
+  <si>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>flower/flower060.png</t>
   </si>
   <si>
     <t>dog/dog053.png</t>
   </si>
   <si>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>dog/dog062.png</t>
+  </si>
+  <si>
+    <t>car/car055.png</t>
+  </si>
+  <si>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>car/car050.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>dog/dog048.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>flower/flower048.png</t>
+  </si>
+  <si>
+    <t>car/car057.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>flower/flower062.png</t>
+  </si>
+  <si>
+    <t>face/face049.png</t>
+  </si>
+  <si>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>flower/flower050.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
+  </si>
+  <si>
+    <t>face/face052.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>car/car063.png</t>
+  </si>
+  <si>
+    <t>flower/flower061.png</t>
+  </si>
+  <si>
+    <t>car/car058.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
     <t>flower/flower052.png</t>
   </si>
   <si>
-    <t>car/car048.png</t>
+    <t>face/face056.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
+  </si>
+  <si>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>face/face051.png</t>
+  </si>
+  <si>
+    <t>car/car054.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
+    <t>face/face054.png</t>
   </si>
   <si>
     <t>car/car049.png</t>
   </si>
   <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
+    <t>flower/flower058.png</t>
   </si>
   <si>
     <t>dog/dog056.png</t>
   </si>
   <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
     <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.563718563569922</v>
+        <v>1.664486097364289</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.649985147736718</v>
+        <v>1.609177621413998</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.764288399390026</v>
+        <v>1.514907178731997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.628368783304319</v>
+        <v>1.537657820074242</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.426065286511474</v>
+        <v>1.343352177312395</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.565984677762359</v>
+        <v>1.625701100540771</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.5502236212709</v>
+        <v>1.572811026685657</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.106062187156063</v>
+        <v>1.280790168058098</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.529345050907428</v>
+        <v>1.359958068345689</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.440598755102786</v>
+        <v>1.509524768164914</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.538856155776894</v>
+        <v>1.67699988755428</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.629968335163847</v>
+        <v>1.644982026300352</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1.445368467498758</v>
+        <v>1.375924928552937</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.697226592403477</v>
+        <v>1.309466135371463</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.461545882000405</v>
+        <v>1.659807125701757</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.706912132986726</v>
+        <v>1.376470858284251</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.650702776195021</v>
+        <v>1.564696284257891</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.642490773787846</v>
+        <v>1.553027239874806</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.537939098109556</v>
+        <v>1.614634738664771</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.381434062163983</v>
+        <v>1.531220255253331</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1.387067402534201</v>
+        <v>1.354283169887071</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.673039113001775</v>
+        <v>1.387356109341464</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.493009154921087</v>
+        <v>1.184597385590015</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.500403551397015</v>
+        <v>1.579843986779611</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.320813277615922</v>
+        <v>1.638422892088566</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.608633888112514</v>
+        <v>1.363459967476144</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.496131489990825</v>
+        <v>1.519453442142494</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.460406333216939</v>
+        <v>1.528258820505584</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.498521241679507</v>
+        <v>1.780785880425203</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.695774611106853</v>
+        <v>1.551601966948129</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.584031770742539</v>
+        <v>1.523896349802004</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.701728530634087</v>
+        <v>1.563328053069844</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.402793071898109</v>
+        <v>1.705075705789457</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.672371197439795</v>
+        <v>1.440403780730553</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.338499793618222</v>
+        <v>1.432827448861015</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.513279904244096</v>
+        <v>1.574706667534553</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.336252468141536</v>
+        <v>1.629617342466962</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.482745509539787</v>
+        <v>1.358732329068186</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.521836056198146</v>
+        <v>1.428878228905937</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.800084654397971</v>
+        <v>1.621035836000596</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.580987940885746</v>
+        <v>1.770204865067273</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.628005038665798</v>
+        <v>1.208430105898402</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.564019323119121</v>
+        <v>1.375582539647343</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.676596444938235</v>
+        <v>1.271949460130854</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.479677771784808</v>
+        <v>1.582429939767128</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.411578952099648</v>
+        <v>1.499565432146946</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.617556906966663</v>
+        <v>1.238415492701793</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.560359274019569</v>
+        <v>1.491043955530248</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1.547517960754662</v>
+        <v>1.613300901867416</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.72708675207387</v>
+        <v>1.497542191409396</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.457621870282167</v>
+        <v>1.484805218294942</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.45973015324617</v>
+        <v>1.670266424186495</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.408308536118559</v>
+        <v>1.681847390580928</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.66613928118308</v>
+        <v>1.631629834002162</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.514079657861422</v>
+        <v>1.600410359885028</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.241339941729001</v>
+        <v>1.633963765027692</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.379307381581123</v>
+        <v>1.24346766447412</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>1.311519128611716</v>
+        <v>1.599586915661405</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.716936076578436</v>
+        <v>1.45490045538607</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.668286765935955</v>
+        <v>1.47291547190004</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>1.456518049340811</v>
+        <v>1.630371352673828</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.390766166160303</v>
+        <v>1.1907189481781</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1.584585169784592</v>
+        <v>1.604740718466213</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1.52410956673325</v>
+        <v>1.430223101698072</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1.448202549164</v>
+        <v>1.519458327128584</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.18920965420157</v>
+        <v>1.289267487699098</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.21723838120123</v>
+        <v>1.427157665310844</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.56011229525615</v>
+        <v>1.484637242562941</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.242891206243657</v>
+        <v>1.410198306428803</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.386370478201149</v>
+        <v>1.20536627484748</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1.535128613661584</v>
+        <v>1.288874331734964</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.440789276884878</v>
+        <v>1.667886205078492</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>1.726034381198764</v>
+        <v>1.320854509452904</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.437583584247719</v>
+        <v>1.412733572897532</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>1.254223692391195</v>
+        <v>1.570014868901823</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.336298020711608</v>
+        <v>1.678382705418061</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.595148212083211</v>
+        <v>1.631102384096246</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.444281174946092</v>
+        <v>1.564134073754015</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1.60266009444906</v>
+        <v>1.605216781711972</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>1.373072592690768</v>
+        <v>1.3538286877783</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.774180742760459</v>
+        <v>1.514019548627036</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.257900213386496</v>
+        <v>1.551791301726446</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.458749646019106</v>
+        <v>1.682920087268909</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.41048194048599</v>
+        <v>1.504390928542456</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.552613781439875</v>
+        <v>1.342472483616713</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>1.171202275729429</v>
+        <v>1.457270526448677</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.460081401198813</v>
+        <v>1.30221301352976</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.541152278964366</v>
+        <v>1.533172999145199</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.625490138143746</v>
+        <v>1.655175279369857</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.492476375352082</v>
+        <v>1.197192462985867</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.343911996638402</v>
+        <v>1.445600610317632</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.510188020444244</v>
+        <v>1.579706269121987</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.525436977423801</v>
+        <v>1.565142016695767</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.203531184186176</v>
+        <v>1.376198115869285</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.481579911913205</v>
+        <v>1.574202396053858</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>1.758295218746023</v>
+        <v>1.523755540454762</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>1.367743947114786</v>
+        <v>1.460725314683395</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>1.26103286891125</v>
+        <v>1.479450449026787</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.657612968522803</v>
+        <v>1.490913593108535</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.395467875985511</v>
+        <v>1.639040118468966</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.045266724706565</v>
+        <v>1.443300448622252</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.517345166729585</v>
+        <v>1.734431631275786</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.441159381869144</v>
+        <v>1.494088342546819</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1.468074332712174</v>
+        <v>1.666184523461017</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.558327491485143</v>
+        <v>1.663673433176</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.335613316948691</v>
+        <v>1.281391078424093</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1.553255274446861</v>
+        <v>1.4131300172078</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.710079944020492</v>
+        <v>1.572082889383126</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.635490602949291</v>
+        <v>1.381766557187437</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.213175125467693</v>
+        <v>1.548680043168569</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>1.486913339493719</v>
+        <v>1.380326783869821</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.34391927956575</v>
+        <v>1.440029632131493</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.458858319644415</v>
+        <v>1.254789986091474</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.367354068717332</v>
+        <v>1.563600633602752</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.61422113669925</v>
+        <v>1.558420941666362</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.334139146686858</v>
+        <v>1.55565633144522</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.390882486433881</v>
+        <v>1.690922090922728</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.562778564864258</v>
+        <v>1.209876677405075</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.800322882581409</v>
+        <v>1.418293048725102</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.63150278357055</v>
+        <v>1.506147607997746</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.387215259311326</v>
+        <v>1.232379714318777</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.345499420161095</v>
+        <v>1.324778581269331</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.477610453842833</v>
+        <v>1.782859826824059</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.663660113162705</v>
+        <v>1.554850414525601</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.395428343332326</v>
+        <v>1.569788112905186</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.609510941001404</v>
+        <v>1.436361905452313</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.378534046814244</v>
+        <v>1.394930817176922</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>1.390977078803499</v>
+        <v>1.338012629783468</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.568512099681632</v>
+        <v>1.784764522814559</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.668748982538554</v>
+        <v>1.247678141235457</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.303336356187422</v>
+        <v>1.484327834812958</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>1.592175816303292</v>
+        <v>1.559816208665564</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.330401081039384</v>
+        <v>1.325407778685049</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.517691581445473</v>
+        <v>1.63306586774661</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>1.491016949312758</v>
+        <v>1.39567759698113</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.633389184109702</v>
+        <v>1.526891253790883</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.60389546108542</v>
+        <v>1.441735764727952</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.531832852484951</v>
+        <v>1.542384531723022</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.523290317273827</v>
+        <v>1.562275459659595</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.537433963159972</v>
+        <v>1.662723483420451</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>1.75372386318179</v>
+        <v>1.327380929058303</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.617294973236271</v>
+        <v>1.453699485107945</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.793055656367641</v>
+        <v>1.581815280514266</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.391907930245828</v>
+        <v>1.636283337539183</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.596540516919015</v>
+        <v>1.576958751419224</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.813210870617767</v>
+        <v>1.376399546990286</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.266201515514379</v>
+        <v>1.689385213752645</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.727202860862657</v>
+        <v>1.594255934206713</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.610169316933847</v>
+        <v>1.708197491789052</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.352714639026123</v>
+        <v>1.319211178334296</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.615123712994624</v>
+        <v>1.461160475516412</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.513847181217221</v>
+        <v>1.412108520960907</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.570923858843072</v>
+        <v>1.504515327421954</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.484575686283606</v>
+        <v>1.532212721779517</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.778553326433279</v>
+        <v>1.426308631835438</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.56039946109514</v>
+        <v>1.536244954905492</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.968458091707184</v>
+        <v>1.697057114263327</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>1.552529601132904</v>
+        <v>1.522184686781104</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.410373462330647</v>
+        <v>1.629773179985122</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>1.601356733204152</v>
+        <v>1.280219988408745</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.590243187684899</v>
+        <v>1.469253790321967</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>1.685752445273082</v>
+        <v>1.566110545331463</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>1.575804507791276</v>
+        <v>1.558637659533199</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.463202341495526</v>
+        <v>1.605610297494571</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.547659611452817</v>
+        <v>1.513368749096929</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.517727676072079</v>
+        <v>1.411040634423994</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.454326124302829</v>
+        <v>1.388097492302317</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1.758502297543339</v>
+        <v>1.43441684102447</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.339206155382668</v>
+        <v>1.391678964341273</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.654980561641141</v>
+        <v>1.46747181293985</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.498000938707815</v>
+        <v>1.508218623875021</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.183668293250956</v>
+        <v>1.230388594756584</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.691067326065184</v>
+        <v>1.458007473164765</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.581090928681276</v>
+        <v>1.504676132981578</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.453874111923892</v>
+        <v>1.402821021679868</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.245484032963201</v>
+        <v>1.659447642057182</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.532457785123685</v>
+        <v>1.521945981695395</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.542715517664386</v>
+        <v>1.382608409773452</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.67360232349114</v>
+        <v>1.687099542187604</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.309645953817776</v>
+        <v>1.473071136564843</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.372523765426697</v>
+        <v>1.275668529351519</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.260832558733922</v>
+        <v>1.566660295643586</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>1.448953819840366</v>
+        <v>1.728061920207345</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185">
-        <v>1.294392667137771</v>
+        <v>1.426156516742421</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.238752362965492</v>
+        <v>1.454143896782076</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.330301165585918</v>
+        <v>1.101508743342264</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.32567889310358</v>
+        <v>1.466561805760363</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.038570646983287</v>
+        <v>1.626020318331286</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="F190">
-        <v>1.67960442787111</v>
+        <v>1.677558350305446</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.310345307403297</v>
+        <v>1.304017723824819</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.438136913717822</v>
+        <v>1.615874240192556</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.405573289774168</v>
+        <v>1.409474081502718</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.475524189723124</v>
+        <v>1.489756155740932</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.43736202402552</v>
+        <v>1.602924052998163</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>1.354327607297886</v>
+        <v>1.572174918457673</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.339389673873454</v>
+        <v>1.713783028796792</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.411864139500524</v>
+        <v>1.951969875120767</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.485702623597914</v>
+        <v>1.558140314201485</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.232110098863711</v>
+        <v>1.57143182021351</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.354435928067831</v>
+        <v>1.358201005003342</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.747399011803241</v>
+        <v>1.386872339716293</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.692167858477668</v>
+        <v>1.438878409106326</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>1.456993675392818</v>
+        <v>1.223214353194291</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.634241874938532</v>
+        <v>1.686724928408114</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>1.61320339499178</v>
+        <v>1.461575323664842</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.891629832583432</v>
+        <v>1.39242723108621</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>1.605444905411717</v>
+        <v>1.439086518760506</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.60919693047206</v>
+        <v>1.291206451188911</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.42190740228701</v>
+        <v>1.739023691898476</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.577370951870712</v>
+        <v>1.359718183435905</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1.597769506991273</v>
+        <v>1.213390841926637</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.400424050518227</v>
+        <v>1.669909874949558</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.498060734643889</v>
+        <v>1.398560511351691</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215">
-        <v>1.391114330603261</v>
+        <v>1.635563210045771</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.427736332680009</v>
+        <v>1.524276849554889</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.377756541976964</v>
+        <v>1.388635020598892</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.675322210796222</v>
+        <v>1.386176290138367</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.525322146507176</v>
+        <v>1.300954784952929</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
-        <v>1.459568909634336</v>
+        <v>1.309817967041488</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>1.639775110512414</v>
+        <v>1.55437033042878</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.494216860254825</v>
+        <v>1.514201529697198</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.596413802030629</v>
+        <v>1.428423380186028</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.510601960687271</v>
+        <v>1.658699190804578</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.629224331929698</v>
+        <v>1.724275056238592</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.465652618593523</v>
+        <v>1.663779500660806</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.409180400738222</v>
+        <v>1.513578480309409</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.497538922495528</v>
+        <v>1.501820053145738</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.671611104757092</v>
+        <v>1.576007017270101</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.442407545594122</v>
+        <v>1.675743295138298</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.693891257859022</v>
+        <v>1.499632202141738</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1.479109497237046</v>
+        <v>1.174385317706823</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.579203041342716</v>
+        <v>1.553285259009163</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.492934736057485</v>
+        <v>1.399540352666469</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.545198209049277</v>
+        <v>1.465050309852525</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.476741728169786</v>
+        <v>1.700958425824102</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.710982587162007</v>
+        <v>1.478176270862386</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.492747387687158</v>
+        <v>1.554265324837813</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.455693206530594</v>
+        <v>1.453270125497001</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>1.634928378997959</v>
+        <v>1.559893809513797</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.346364314984921</v>
+        <v>1.565469383543531</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.538483147846605</v>
+        <v>1.729303481533718</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.6299894941039</v>
+        <v>1.522074264852478</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.639726811633409</v>
+        <v>1.306394161050418</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.380413131608474</v>
+        <v>1.444004403396602</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246">
-        <v>1.356988097474091</v>
+        <v>1.268084550203618</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.493222113973684</v>
+        <v>1.268546228521156</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.691606435906816</v>
+        <v>1.45361386115966</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.579496231176021</v>
+        <v>1.342907116773322</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.554874862830759</v>
+        <v>1.721290856520353</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>1.506274321022083</v>
+        <v>1.65741284311376</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.202247916288145</v>
+        <v>1.507605628667576</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.427519651642809</v>
+        <v>1.663062628232749</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.42167643656297</v>
+        <v>1.696407954079735</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.294399448514224</v>
+        <v>1.4331919596265</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.490198528515564</v>
+        <v>1.353800143218971</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.379530050842723</v>
+        <v>1.314338918702451</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/15_localizer.xlsx
+++ b/sequences/15_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
-    <t>car</t>
+    <t>dog</t>
   </si>
   <si>
     <t>face</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
+    <t>house</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.664486097364289</v>
+        <v>1.47193578728824</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.609177621413998</v>
+        <v>1.639773119811162</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.514907178731997</v>
+        <v>1.296600728885255</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.537657820074242</v>
+        <v>1.334519102009826</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.343352177312395</v>
+        <v>1.577344892971699</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1.625701100540771</v>
+        <v>1.378968739072237</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.572811026685657</v>
+        <v>1.571401735225075</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.280790168058098</v>
+        <v>1.673643472104879</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.359958068345689</v>
+        <v>1.621170819991172</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.509524768164914</v>
+        <v>1.529157556623921</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.67699988755428</v>
+        <v>1.592713850774998</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.644982026300352</v>
+        <v>1.745994962606731</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.375924928552937</v>
+        <v>1.773209273040468</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.309466135371463</v>
+        <v>1.355131145800128</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.659807125701757</v>
+        <v>1.589412822659717</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.376470858284251</v>
+        <v>1.481970308338665</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.564696284257891</v>
+        <v>1.611473215517792</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.553027239874806</v>
+        <v>1.325176050948262</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.614634738664771</v>
+        <v>1.461110643271467</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1.531220255253331</v>
+        <v>1.537950587677008</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.354283169887071</v>
+        <v>1.475786060230369</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.387356109341464</v>
+        <v>1.410913039295819</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.184597385590015</v>
+        <v>1.343082662842068</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1.579843986779611</v>
+        <v>1.27339366705086</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.638422892088566</v>
+        <v>1.517241826175773</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.363459967476144</v>
+        <v>1.541161862558899</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.519453442142494</v>
+        <v>1.652826236939675</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.528258820505584</v>
+        <v>1.336096204989614</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.780785880425203</v>
+        <v>1.544772332920886</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.551601966948129</v>
+        <v>1.335473439973389</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.523896349802004</v>
+        <v>1.574144771358316</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.563328053069844</v>
+        <v>1.404251967948724</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.705075705789457</v>
+        <v>1.290662933855982</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1.440403780730553</v>
+        <v>1.479952253883736</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.432827448861015</v>
+        <v>1.504130289714875</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.574706667534553</v>
+        <v>1.261105892238416</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.629617342466962</v>
+        <v>1.379465504596511</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.358732329068186</v>
+        <v>1.631890056536769</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.428878228905937</v>
+        <v>1.762932021981289</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.621035836000596</v>
+        <v>1.774502300416417</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.770204865067273</v>
+        <v>1.483560603212601</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.208430105898402</v>
+        <v>1.457513236803477</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.375582539647343</v>
+        <v>1.499001596494059</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.271949460130854</v>
+        <v>1.583661915099435</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.582429939767128</v>
+        <v>1.793690970178972</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1.499565432146946</v>
+        <v>1.466001604023604</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.238415492701793</v>
+        <v>1.519723549605361</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.491043955530248</v>
+        <v>1.337542728673029</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.613300901867416</v>
+        <v>1.408848611771544</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1.497542191409396</v>
+        <v>1.612155379510783</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.484805218294942</v>
+        <v>1.518468249118403</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.670266424186495</v>
+        <v>1.666090382933188</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.681847390580928</v>
+        <v>1.545969149907051</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.631629834002162</v>
+        <v>1.63776937240336</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.600410359885028</v>
+        <v>1.228606800269224</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.633963765027692</v>
+        <v>1.527242781559931</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.24346766447412</v>
+        <v>1.372416655790875</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>1.599586915661405</v>
+        <v>1.514367053715921</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.45490045538607</v>
+        <v>1.42150965121012</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.47291547190004</v>
+        <v>1.529308944150864</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>1.630371352673828</v>
+        <v>1.518889952274669</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.1907189481781</v>
+        <v>1.554766107562121</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1.604740718466213</v>
+        <v>1.561603251486155</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1.430223101698072</v>
+        <v>1.243723165383934</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1.519458327128584</v>
+        <v>1.65043047179089</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.289267487699098</v>
+        <v>1.731230372083061</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.427157665310844</v>
+        <v>1.500520473119254</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.484637242562941</v>
+        <v>1.338841468377054</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.410198306428803</v>
+        <v>1.379386329823482</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.20536627484748</v>
+        <v>1.30101956308255</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.288874331734964</v>
+        <v>1.910947226140657</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.667886205078492</v>
+        <v>1.311516266907132</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>1.320854509452904</v>
+        <v>1.273039726290279</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.412733572897532</v>
+        <v>1.285237116483904</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>1.570014868901823</v>
+        <v>1.413131436196017</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.678382705418061</v>
+        <v>1.370779804323611</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.631102384096246</v>
+        <v>1.42520380523258</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.564134073754015</v>
+        <v>1.728973345491838</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.605216781711972</v>
+        <v>1.526890567384098</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F81">
-        <v>1.3538286877783</v>
+        <v>1.363642649777324</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.514019548627036</v>
+        <v>1.651633760860587</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.551791301726446</v>
+        <v>1.56293339653695</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.682920087268909</v>
+        <v>1.337996536022064</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>1.504390928542456</v>
+        <v>1.608388249944809</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.342472483616713</v>
+        <v>1.24361037346398</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>1.457270526448677</v>
+        <v>1.328543693377567</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.30221301352976</v>
+        <v>1.536092098209727</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.533172999145199</v>
+        <v>1.665194529848613</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.655175279369857</v>
+        <v>1.579917035456047</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.197192462985867</v>
+        <v>1.576692120302913</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.445600610317632</v>
+        <v>1.417945080746315</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.579706269121987</v>
+        <v>1.865497351813126</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1.565142016695767</v>
+        <v>1.419924453764074</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.376198115869285</v>
+        <v>1.557933889049995</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.574202396053858</v>
+        <v>1.590804599607526</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>1.523755540454762</v>
+        <v>1.68763433209985</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1.460725314683395</v>
+        <v>1.39705928535817</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1.479450449026787</v>
+        <v>1.59139567336561</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>1.490913593108535</v>
+        <v>1.521094849429345</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.639040118468966</v>
+        <v>1.475762878770332</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.443300448622252</v>
+        <v>1.553227327360425</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.734431631275786</v>
+        <v>1.353705861729088</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.494088342546819</v>
+        <v>1.623594025120381</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.666184523461017</v>
+        <v>1.251805635381184</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.663673433176</v>
+        <v>1.485796209256686</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.281391078424093</v>
+        <v>1.518643606245301</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.4131300172078</v>
+        <v>1.434696425998306</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.572082889383126</v>
+        <v>1.754299620226061</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.381766557187437</v>
+        <v>1.583648246774489</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>1.548680043168569</v>
+        <v>1.532085523758177</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.380326783869821</v>
+        <v>1.65834488163857</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>1.440029632131493</v>
+        <v>1.819186388257745</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.254789986091474</v>
+        <v>1.603315796940213</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.563600633602752</v>
+        <v>1.439660166874134</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.558420941666362</v>
+        <v>1.425395725826809</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.55565633144522</v>
+        <v>1.460267031821397</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.690922090922728</v>
+        <v>1.40642805030414</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.209876677405075</v>
+        <v>1.480000161259531</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.418293048725102</v>
+        <v>1.537077522122983</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.506147607997746</v>
+        <v>1.34867483493831</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.232379714318777</v>
+        <v>1.374078141313439</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.324778581269331</v>
+        <v>1.381698942740325</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.782859826824059</v>
+        <v>1.840979713131254</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.554850414525601</v>
+        <v>1.293450627015803</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.569788112905186</v>
+        <v>1.455282082972367</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.436361905452313</v>
+        <v>1.516476203215435</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.394930817176922</v>
+        <v>1.396834702682239</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.338012629783468</v>
+        <v>1.822273365144607</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.784764522814559</v>
+        <v>1.261314941748584</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.247678141235457</v>
+        <v>1.353187027630196</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.484327834812958</v>
+        <v>1.557728358425269</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1.559816208665564</v>
+        <v>1.699085504394372</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.325407778685049</v>
+        <v>1.474706508256088</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.63306586774661</v>
+        <v>1.183735353251272</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="F136">
-        <v>1.39567759698113</v>
+        <v>1.348702011296936</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.526891253790883</v>
+        <v>1.448044526710461</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.441735764727952</v>
+        <v>1.666770832485116</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.542384531723022</v>
+        <v>1.38400949553089</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.562275459659595</v>
+        <v>1.312394156462746</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.662723483420451</v>
+        <v>1.239588049336862</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.327380929058303</v>
+        <v>1.496954830372829</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>1.453699485107945</v>
+        <v>1.569795344894407</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.581815280514266</v>
+        <v>1.53634161407394</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.636283337539183</v>
+        <v>1.378769723121243</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.576958751419224</v>
+        <v>1.496711973111024</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.376399546990286</v>
+        <v>1.473958493861706</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.689385213752645</v>
+        <v>1.41478663723287</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.594255934206713</v>
+        <v>1.577412637355915</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.708197491789052</v>
+        <v>1.598844395307707</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>1.319211178334296</v>
+        <v>1.545398444481709</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.461160475516412</v>
+        <v>1.326103622674458</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.412108520960907</v>
+        <v>1.43708421078631</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.504515327421954</v>
+        <v>1.466535253965237</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.532212721779517</v>
+        <v>1.540442997427448</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.426308631835438</v>
+        <v>1.664388242143637</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.536244954905492</v>
+        <v>1.666821834966197</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.697057114263327</v>
+        <v>1.394875494403292</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.522184686781104</v>
+        <v>1.620280721105393</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.629773179985122</v>
+        <v>1.393078481050009</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>1.280219988408745</v>
+        <v>1.330876200366132</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.469253790321967</v>
+        <v>1.635180966393831</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.566110545331463</v>
+        <v>1.525254752322054</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>1.558637659533199</v>
+        <v>1.114190151883435</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.605610297494571</v>
+        <v>1.673194000381669</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.513368749096929</v>
+        <v>1.566208587616108</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.411040634423994</v>
+        <v>1.420697413029552</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.388097492302317</v>
+        <v>1.438933599514544</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.43441684102447</v>
+        <v>1.571867516201</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.391678964341273</v>
+        <v>1.498481162087596</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.46747181293985</v>
+        <v>1.618970274512233</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.508218623875021</v>
+        <v>1.349949814604621</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.230388594756584</v>
+        <v>1.561358065915876</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>1.458007473164765</v>
+        <v>1.380485591224604</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.504676132981578</v>
+        <v>1.279418083201642</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.402821021679868</v>
+        <v>1.374632204753833</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.659447642057182</v>
+        <v>1.658887213240014</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.521945981695395</v>
+        <v>1.699047471850897</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.382608409773452</v>
+        <v>1.326263251282015</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.687099542187604</v>
+        <v>1.639994032962789</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>1.473071136564843</v>
+        <v>1.589481828656288</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.275668529351519</v>
+        <v>1.643336656688867</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.566660295643586</v>
+        <v>1.663377326071814</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.728061920207345</v>
+        <v>1.420777602418381</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>1.426156516742421</v>
+        <v>1.552784930155634</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.454143896782076</v>
+        <v>1.475446067454702</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.101508743342264</v>
+        <v>1.774539500043498</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.466561805760363</v>
+        <v>1.693192206715471</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.626020318331286</v>
+        <v>1.320364111541137</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="F190">
-        <v>1.677558350305446</v>
+        <v>1.558407943717764</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.304017723824819</v>
+        <v>1.321573169751318</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>1.615874240192556</v>
+        <v>1.549326409151421</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.409474081502718</v>
+        <v>1.358880386742545</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.489756155740932</v>
+        <v>1.400717503181728</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.602924052998163</v>
+        <v>1.31770127892058</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.572174918457673</v>
+        <v>1.530425660910918</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.713783028796792</v>
+        <v>1.466928152096105</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.951969875120767</v>
+        <v>1.527942839914375</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.558140314201485</v>
+        <v>1.492712035915261</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.57143182021351</v>
+        <v>1.216839540740013</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1.358201005003342</v>
+        <v>1.249451800752925</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.386872339716293</v>
+        <v>1.384486663405368</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.438878409106326</v>
+        <v>1.356349340324605</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1.223214353194291</v>
+        <v>1.637377948271201</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.686724928408114</v>
+        <v>1.352340956967919</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.461575323664842</v>
+        <v>1.482925941975241</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.39242723108621</v>
+        <v>1.2187175013292</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.439086518760506</v>
+        <v>1.789139211991733</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.291206451188911</v>
+        <v>1.452282767025568</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.739023691898476</v>
+        <v>1.345235888629719</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.359718183435905</v>
+        <v>1.118775255984434</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.213390841926637</v>
+        <v>1.441517062891518</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.669909874949558</v>
+        <v>1.697012840355329</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.398560511351691</v>
+        <v>1.399757574402536</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>1.635563210045771</v>
+        <v>1.314493382044083</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.524276849554889</v>
+        <v>1.284877822157236</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.388635020598892</v>
+        <v>1.499174854596435</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.386176290138367</v>
+        <v>1.518989432277689</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>1.300954784952929</v>
+        <v>1.379384333397516</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1.309817967041488</v>
+        <v>1.46318742038253</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>1.55437033042878</v>
+        <v>1.398612398662798</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.514201529697198</v>
+        <v>1.521807170350546</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.428423380186028</v>
+        <v>1.596763949601456</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>1.658699190804578</v>
+        <v>1.420730269901432</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.724275056238592</v>
+        <v>1.624578760462732</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.663779500660806</v>
+        <v>1.391503208618943</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>1.513578480309409</v>
+        <v>1.55765028727304</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.501820053145738</v>
+        <v>1.454628246722822</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.576007017270101</v>
+        <v>1.359717844682951</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.675743295138298</v>
+        <v>1.628178435520225</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.499632202141738</v>
+        <v>1.750003419744653</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.174385317706823</v>
+        <v>1.606954462940975</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.553285259009163</v>
+        <v>1.586200246613657</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.399540352666469</v>
+        <v>1.470693668111095</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235">
-        <v>1.465050309852525</v>
+        <v>1.203109894091847</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.700958425824102</v>
+        <v>1.429823662930094</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.478176270862386</v>
+        <v>1.566210886113247</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.554265324837813</v>
+        <v>1.591926056263343</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.453270125497001</v>
+        <v>1.389752646764273</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.559893809513797</v>
+        <v>1.655971503643646</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241">
-        <v>1.565469383543531</v>
+        <v>1.715080562520291</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.729303481533718</v>
+        <v>1.850998524277582</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.522074264852478</v>
+        <v>1.461525387937559</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.306394161050418</v>
+        <v>1.575665623668892</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.444004403396602</v>
+        <v>1.164527085114536</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>1.268084550203618</v>
+        <v>1.490115648325375</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.268546228521156</v>
+        <v>1.722883462543324</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.45361386115966</v>
+        <v>1.263983961364773</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.342907116773322</v>
+        <v>1.577982247724064</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.721290856520353</v>
+        <v>1.427936652824652</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.65741284311376</v>
+        <v>1.468645640625342</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.507605628667576</v>
+        <v>1.310375725100103</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.663062628232749</v>
+        <v>1.368124170631244</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.696407954079735</v>
+        <v>1.740231785225786</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.4331919596265</v>
+        <v>1.535193282727859</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.353800143218971</v>
+        <v>1.671970593155996</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
-        <v>1.314338918702451</v>
+        <v>1.541756390513849</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/15_localizer.xlsx
+++ b/sequences/15_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
     <t>face</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
     <t>house</t>
   </si>
   <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
     <t>dog/dog041.jpg</t>
   </si>
   <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
   </si>
   <si>
     <t>dog/dog036.jpg</t>
   </si>
   <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
   </si>
   <si>
     <t>dog/dog032.jpg</t>
   </si>
   <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
     <t>dog/dog035.jpg</t>
   </si>
   <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
   </si>
   <si>
     <t>face/face060.jpg</t>
   </si>
   <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
     <t>flower/flower052.jpg</t>
   </si>
   <si>
-    <t>dog/dog055.jpg</t>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
   </si>
   <si>
     <t>dog/dog056.jpg</t>
   </si>
   <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
     <t>face/face055.jpg</t>
   </si>
   <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
     <t>flower/flower050.jpg</t>
   </si>
   <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
     <t>dog/dog057.jpg</t>
   </si>
   <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
+    <t>dog/dog058.jpg</t>
   </si>
   <si>
     <t>house/house061.jpg</t>
   </si>
   <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
     <t>dog/dog048.jpg</t>
   </si>
   <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
     <t>flower/flower054.jpg</t>
   </si>
   <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
     <t>flower/flower061.jpg</t>
   </si>
   <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
   </si>
   <si>
     <t>house/house078.jpg</t>
   </si>
   <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
   </si>
   <si>
     <t>face/face073.jpg</t>
   </si>
   <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
     <t>flower/flower068.jpg</t>
   </si>
   <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
   </si>
   <si>
     <t>flower/flower073.jpg</t>
   </si>
   <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
   </si>
   <si>
     <t>house/house094.jpg</t>
   </si>
   <si>
-    <t>flower/flower080.jpg</t>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
   </si>
   <si>
     <t>face/face095.jpg</t>
   </si>
   <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
     <t>house/house088.jpg</t>
   </si>
   <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
   </si>
   <si>
     <t>flower/flower082.jpg</t>
   </si>
   <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
+    <t>house/house080.jpg</t>
   </si>
   <si>
     <t>house/house090.jpg</t>
   </si>
   <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
     <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.47193578728824</v>
+        <v>1.223903731682305</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.639773119811162</v>
+        <v>1.306526367786695</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.296600728885255</v>
+        <v>1.474150518181495</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.334519102009826</v>
+        <v>1.62631242178638</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.577344892971699</v>
+        <v>1.511985505764164</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1.378968739072237</v>
+        <v>1.400415831229014</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.571401735225075</v>
+        <v>1.402449809349508</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.673643472104879</v>
+        <v>1.617572432345339</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.621170819991172</v>
+        <v>1.504495935793626</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.529157556623921</v>
+        <v>1.637173016754914</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.592713850774998</v>
+        <v>1.585868806004525</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.745994962606731</v>
+        <v>1.400225310386418</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1.773209273040468</v>
+        <v>1.408348694131277</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.355131145800128</v>
+        <v>1.505591679833936</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.589412822659717</v>
+        <v>1.438959803608768</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.481970308338665</v>
+        <v>1.66087569109194</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.611473215517792</v>
+        <v>1.691426462453375</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.325176050948262</v>
+        <v>1.168502128386953</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.461110643271467</v>
+        <v>1.607362850059185</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1.537950587677008</v>
+        <v>1.960696698221115</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.475786060230369</v>
+        <v>1.576240435580677</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1.410913039295819</v>
+        <v>1.569954126531593</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.343082662842068</v>
+        <v>1.476931122755591</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1.27339366705086</v>
+        <v>1.545022472886785</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.517241826175773</v>
+        <v>1.250871834904056</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.541161862558899</v>
+        <v>1.648155933276942</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.652826236939675</v>
+        <v>1.516469204303394</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.336096204989614</v>
+        <v>1.581726814537608</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.544772332920886</v>
+        <v>1.347640959189767</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.335473439973389</v>
+        <v>1.025471750963193</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.574144771358316</v>
+        <v>1.519334321321859</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1.404251967948724</v>
+        <v>1.304312434193714</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.290662933855982</v>
+        <v>1.851479986483586</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.479952253883736</v>
+        <v>1.516560109664595</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.504130289714875</v>
+        <v>1.51232707228097</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.261105892238416</v>
+        <v>1.487632826981735</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.379465504596511</v>
+        <v>1.398789975868071</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.631890056536769</v>
+        <v>1.555738121868518</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.762932021981289</v>
+        <v>1.131780539387879</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.774502300416417</v>
+        <v>1.494548767429131</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.483560603212601</v>
+        <v>1.370772761774015</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>1.457513236803477</v>
+        <v>1.524336920311423</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.499001596494059</v>
+        <v>1.421756062375044</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1.583661915099435</v>
+        <v>1.751601393921025</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.793690970178972</v>
+        <v>1.552940813124505</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.466001604023604</v>
+        <v>1.438937344955936</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.519723549605361</v>
+        <v>1.578463609223167</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.337542728673029</v>
+        <v>1.340089709468654</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.408848611771544</v>
+        <v>1.384158267268927</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1.612155379510783</v>
+        <v>1.299856727418873</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.518468249118403</v>
+        <v>1.312822765851365</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.666090382933188</v>
+        <v>1.635221104405753</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.545969149907051</v>
+        <v>1.82907847527886</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.63776937240336</v>
+        <v>1.504687496806552</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.228606800269224</v>
+        <v>1.278249457486429</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.527242781559931</v>
+        <v>1.383960712857816</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.372416655790875</v>
+        <v>1.300960754752879</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.514367053715921</v>
+        <v>1.655882102701492</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.42150965121012</v>
+        <v>1.233301460453366</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>1.529308944150864</v>
+        <v>1.89357799664822</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.518889952274669</v>
+        <v>1.702811017427644</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.554766107562121</v>
+        <v>1.449865185532687</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.561603251486155</v>
+        <v>1.499256759226661</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.243723165383934</v>
+        <v>1.553430815575381</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.65043047179089</v>
+        <v>1.60687322190933</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.731230372083061</v>
+        <v>1.552317162993434</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.500520473119254</v>
+        <v>1.276602211464942</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.338841468377054</v>
+        <v>1.512081165659587</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.379386329823482</v>
+        <v>1.597416814887676</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>1.30101956308255</v>
+        <v>1.736292379195663</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.910947226140657</v>
+        <v>1.428135948268973</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.311516266907132</v>
+        <v>1.474562829607983</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>1.273039726290279</v>
+        <v>1.444207691274081</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.285237116483904</v>
+        <v>1.598961786282838</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.413131436196017</v>
+        <v>1.363924562339385</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.370779804323611</v>
+        <v>1.672608055319293</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.42520380523258</v>
+        <v>1.30332108699617</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.728973345491838</v>
+        <v>1.342419129765658</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.526890567384098</v>
+        <v>1.333367152147133</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>1.363642649777324</v>
+        <v>1.586929484882464</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.651633760860587</v>
+        <v>1.613381982323532</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.56293339653695</v>
+        <v>1.505832062041668</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.337996536022064</v>
+        <v>1.640236986708661</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>1</v>
       </c>
       <c r="F85">
-        <v>1.608388249944809</v>
+        <v>1.547766308268214</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.24361037346398</v>
+        <v>1.534370083326336</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1.328543693377567</v>
+        <v>1.449108844474502</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.536092098209727</v>
+        <v>1.784614090372574</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.665194529848613</v>
+        <v>1.561121161984688</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1.579917035456047</v>
+        <v>1.357708738037202</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.576692120302913</v>
+        <v>1.361280428789566</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.417945080746315</v>
+        <v>1.41257952275726</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.865497351813126</v>
+        <v>1.737084587535198</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.419924453764074</v>
+        <v>1.389985864962012</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.557933889049995</v>
+        <v>1.55124317333065</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.590804599607526</v>
+        <v>1.460094731509643</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>1.68763433209985</v>
+        <v>1.50856944533036</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.39705928535817</v>
+        <v>1.569026830877726</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.59139567336561</v>
+        <v>1.491597741347089</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1.521094849429345</v>
+        <v>1.128274829593743</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.475762878770332</v>
+        <v>1.490998527820251</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.553227327360425</v>
+        <v>1.192984793284821</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.353705861729088</v>
+        <v>1.58032839627344</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.623594025120381</v>
+        <v>1.089429328210805</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.251805635381184</v>
+        <v>1.468129431320107</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.485796209256686</v>
+        <v>1.615008095700903</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.518643606245301</v>
+        <v>1.643696474700834</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.434696425998306</v>
+        <v>1.547738183416814</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.754299620226061</v>
+        <v>1.570136060793508</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.583648246774489</v>
+        <v>1.337755760010905</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1.532085523758177</v>
+        <v>1.301397034925001</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.65834488163857</v>
+        <v>1.266010668196467</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1.819186388257745</v>
+        <v>1.337361596473998</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.603315796940213</v>
+        <v>1.624565286128534</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>1.439660166874134</v>
+        <v>1.525148922971181</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.425395725826809</v>
+        <v>1.430082910617718</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.460267031821397</v>
+        <v>1.679640522778652</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>1.40642805030414</v>
+        <v>1.639897128284352</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>1.480000161259531</v>
+        <v>1.383832913418386</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.537077522122983</v>
+        <v>1.708204682009329</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.34867483493831</v>
+        <v>1.63030394733038</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.374078141313439</v>
+        <v>1.764045769502066</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.381698942740325</v>
+        <v>1.630771958803062</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.840979713131254</v>
+        <v>1.391979086521025</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.293450627015803</v>
+        <v>1.440763531615831</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.455282082972367</v>
+        <v>1.589681932530173</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>1.516476203215435</v>
+        <v>1.522070975235408</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.396834702682239</v>
+        <v>1.436674142797136</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.822273365144607</v>
+        <v>1.252039093451945</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.261314941748584</v>
+        <v>1.532275413933446</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.353187027630196</v>
+        <v>1.533246158760651</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.557728358425269</v>
+        <v>1.543693413174338</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.699085504394372</v>
+        <v>1.334239021799988</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.474706508256088</v>
+        <v>1.736367714790433</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.183735353251272</v>
+        <v>1.467142159490324</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1.348702011296936</v>
+        <v>1.549225318032038</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.448044526710461</v>
+        <v>1.457236340377856</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.666770832485116</v>
+        <v>1.399196521254876</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.38400949553089</v>
+        <v>1.668814800064601</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1.312394156462746</v>
+        <v>1.649011291180153</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.239588049336862</v>
+        <v>1.495677160149856</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.496954830372829</v>
+        <v>1.545220833989627</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1.569795344894407</v>
+        <v>1.585702576610813</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.53634161407394</v>
+        <v>1.578593287419921</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.378769723121243</v>
+        <v>1.260122410241034</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.496711973111024</v>
+        <v>1.439198493058843</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.473958493861706</v>
+        <v>1.467986841675131</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.41478663723287</v>
+        <v>1.469073718196169</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.577412637355915</v>
+        <v>1.430367217733453</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.598844395307707</v>
+        <v>1.904320899457793</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F151">
-        <v>1.545398444481709</v>
+        <v>1.397525853638355</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.326103622674458</v>
+        <v>1.444019740903116</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.43708421078631</v>
+        <v>1.5092574279023</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.466535253965237</v>
+        <v>1.605166520805904</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.540442997427448</v>
+        <v>1.246205191200635</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.664388242143637</v>
+        <v>1.086938058481958</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.666821834966197</v>
+        <v>1.455850731209463</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F158">
-        <v>1.394875494403292</v>
+        <v>1.461849058111923</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159">
-        <v>1.620280721105393</v>
+        <v>1.383061347491634</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.393078481050009</v>
+        <v>1.200430173579647</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.330876200366132</v>
+        <v>1.635015115137584</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.635180966393831</v>
+        <v>1.622158328979794</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.525254752322054</v>
+        <v>1.507837477011859</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.114190151883435</v>
+        <v>1.674440352391919</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165">
-        <v>1.673194000381669</v>
+        <v>1.508757735037123</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.566208587616108</v>
+        <v>1.43958191569064</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.420697413029552</v>
+        <v>1.43346496960064</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.438933599514544</v>
+        <v>1.534933439162586</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.571867516201</v>
+        <v>1.681153777044915</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.498481162087596</v>
+        <v>1.383491040869307</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171">
-        <v>1.618970274512233</v>
+        <v>1.424048617509056</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.349949814604621</v>
+        <v>1.416373389804291</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.561358065915876</v>
+        <v>1.482979497249802</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.380485591224604</v>
+        <v>1.408122248008195</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.279418083201642</v>
+        <v>1.679199915420586</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>1.374632204753833</v>
+        <v>1.434506734490171</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.658887213240014</v>
+        <v>1.728595658308836</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.699047471850897</v>
+        <v>1.597393468632749</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.326263251282015</v>
+        <v>1.524091022751531</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.639994032962789</v>
+        <v>1.39742564223705</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>1.589481828656288</v>
+        <v>1.454409676599626</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.643336656688867</v>
+        <v>1.453960908487881</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.663377326071814</v>
+        <v>1.438727739978234</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.420777602418381</v>
+        <v>1.885005880512558</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185">
-        <v>1.552784930155634</v>
+        <v>1.502216007053038</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.475446067454702</v>
+        <v>1.510640199181548</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.774539500043498</v>
+        <v>1.609776979010871</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.693192206715471</v>
+        <v>1.761796338692013</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.320364111541137</v>
+        <v>1.383075924826765</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>1.558407943717764</v>
+        <v>1.591591954494808</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.321573169751318</v>
+        <v>1.387857469595649</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.549326409151421</v>
+        <v>1.382035617390085</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.358880386742545</v>
+        <v>1.373353476851242</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.400717503181728</v>
+        <v>1.224419852315678</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.31770127892058</v>
+        <v>1.460215270695814</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.530425660910918</v>
+        <v>1.468952319990635</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.466928152096105</v>
+        <v>1.624553102944338</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.527942839914375</v>
+        <v>1.521629329368735</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199">
-        <v>1.492712035915261</v>
+        <v>1.558677326323733</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>1.216839540740013</v>
+        <v>1.654142152122596</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>1.249451800752925</v>
+        <v>1.474550199683588</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>1.384486663405368</v>
+        <v>1.463928210970477</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.356349340324605</v>
+        <v>1.338102339358479</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>1.637377948271201</v>
+        <v>1.430860117222366</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.352340956967919</v>
+        <v>1.439381347888465</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.482925941975241</v>
+        <v>1.597915082876686</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.2187175013292</v>
+        <v>1.49584223659403</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.789139211991733</v>
+        <v>1.578046179135035</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.452282767025568</v>
+        <v>1.279495867700949</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.345235888629719</v>
+        <v>1.204298581659868</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.118775255984434</v>
+        <v>1.755365336060482</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.441517062891518</v>
+        <v>1.62361242324</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213">
-        <v>1.697012840355329</v>
+        <v>1.620965307971277</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.399757574402536</v>
+        <v>1.543930455631065</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.314493382044083</v>
+        <v>1.593204447884037</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.284877822157236</v>
+        <v>1.324194887217496</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.499174854596435</v>
+        <v>1.525924782863736</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.518989432277689</v>
+        <v>1.402504970349848</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>1.379384333397516</v>
+        <v>1.609811857061969</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.46318742038253</v>
+        <v>1.485931910276434</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.398612398662798</v>
+        <v>1.413327673576451</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.521807170350546</v>
+        <v>1.605243925027194</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.596763949601456</v>
+        <v>1.7088963281673</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1.420730269901432</v>
+        <v>1.677550955810164</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.624578760462732</v>
+        <v>1.687160011374451</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.391503208618943</v>
+        <v>1.633381140467264</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.55765028727304</v>
+        <v>1.355342348469424</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.454628246722822</v>
+        <v>1.452129436142433</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.359717844682951</v>
+        <v>1.295372160300092</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.628178435520225</v>
+        <v>1.345616795775251</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.750003419744653</v>
+        <v>1.339682001497254</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.606954462940975</v>
+        <v>1.457797542615487</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.586200246613657</v>
+        <v>1.560478270653321</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1.470693668111095</v>
+        <v>1.460759959722079</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>1.203109894091847</v>
+        <v>1.925280044410091</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.429823662930094</v>
+        <v>1.497031567817781</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.566210886113247</v>
+        <v>1.28613561802062</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.591926056263343</v>
+        <v>1.373169018588968</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.389752646764273</v>
+        <v>1.42653871981321</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.655971503643646</v>
+        <v>1.507140817432715</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>1.715080562520291</v>
+        <v>1.684173074833434</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.850998524277582</v>
+        <v>1.654876114875737</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.461525387937559</v>
+        <v>1.392096279989951</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.575665623668892</v>
+        <v>1.593430311854535</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.164527085114536</v>
+        <v>1.456545988758703</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.490115648325375</v>
+        <v>1.510988007016425</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.722883462543324</v>
+        <v>1.458555672676626</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248">
-        <v>1.263983961364773</v>
+        <v>1.366785765011676</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.577982247724064</v>
+        <v>1.575406505603736</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.427936652824652</v>
+        <v>1.219954371283233</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251">
-        <v>1.468645640625342</v>
+        <v>1.765331705021483</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.310375725100103</v>
+        <v>1.659616075525302</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.368124170631244</v>
+        <v>1.481046425254761</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.740231785225786</v>
+        <v>1.598890109666985</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.535193282727859</v>
+        <v>1.593752867463113</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256">
-        <v>1.671970593155996</v>
+        <v>1.405491400699437</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>1.541756390513849</v>
+        <v>1.309794136412849</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/15_localizer.xlsx
+++ b/sequences/15_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>dog</t>
+    <t>house</t>
   </si>
   <si>
     <t>face</t>
   </si>
   <si>
-    <t>house</t>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
   </si>
   <si>
     <t>flower/flower039.jpg</t>
   </si>
   <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
   </si>
   <si>
     <t>flower/flower036.jpg</t>
   </si>
   <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
     <t>flower/flower048.jpg</t>
   </si>
   <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
   </si>
   <si>
     <t>house/house054.jpg</t>
   </si>
   <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
     <t>house/house051.jpg</t>
   </si>
   <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
   </si>
   <si>
     <t>face/face062.jpg</t>
   </si>
   <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
   </si>
   <si>
     <t>face/face061.jpg</t>
   </si>
   <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
   </si>
   <si>
     <t>dog/dog053.jpg</t>
   </si>
   <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
     <t>face/face052.jpg</t>
   </si>
   <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
     <t>flower/flower055.jpg</t>
   </si>
   <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
   </si>
   <si>
     <t>dog/dog076.jpg</t>
   </si>
   <si>
-    <t>flower/flower070.jpg</t>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
   </si>
   <si>
     <t>house/house073.jpg</t>
   </si>
   <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
     <t>face/face074.jpg</t>
   </si>
   <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
     <t>flower/flower076.jpg</t>
   </si>
   <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
   </si>
   <si>
     <t>flower/flower094.jpg</t>
   </si>
   <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
     <t>flower/flower095.jpg</t>
   </si>
   <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
   </si>
   <si>
     <t>face/face082.jpg</t>
   </si>
   <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
     <t>face/face093.jpg</t>
   </si>
   <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
     <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.223903731682305</v>
+        <v>1.694706330543677</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.306526367786695</v>
+        <v>1.600668020581668</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.474150518181495</v>
+        <v>1.509991269266873</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.62631242178638</v>
+        <v>1.588622188015828</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.511985505764164</v>
+        <v>1.64555304303006</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.400415831229014</v>
+        <v>1.403714344433912</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.402449809349508</v>
+        <v>1.279823864509584</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.617572432345339</v>
+        <v>1.368231509723962</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.504495935793626</v>
+        <v>1.12547614755827</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.637173016754914</v>
+        <v>1.717536862783574</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.585868806004525</v>
+        <v>1.295818259553815</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.400225310386418</v>
+        <v>1.403209258685319</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1.408348694131277</v>
+        <v>1.573827650521979</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.505591679833936</v>
+        <v>1.658261059982219</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1.438959803608768</v>
+        <v>1.443068244228695</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1.66087569109194</v>
+        <v>1.390560818581118</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.691426462453375</v>
+        <v>1.557526546050416</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.168502128386953</v>
+        <v>1.524670299600421</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.607362850059185</v>
+        <v>1.620260512012657</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.960696698221115</v>
+        <v>1.445546082142652</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.576240435580677</v>
+        <v>1.543640456271212</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.569954126531593</v>
+        <v>1.427075315627249</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.476931122755591</v>
+        <v>1.520106391080566</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.545022472886785</v>
+        <v>1.531229419484452</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.250871834904056</v>
+        <v>1.439542757117187</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.648155933276942</v>
+        <v>1.414171230650409</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.516469204303394</v>
+        <v>1.40289552128088</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.581726814537608</v>
+        <v>1.460451054334224</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.347640959189767</v>
+        <v>1.511661939596828</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.025471750963193</v>
+        <v>1.626522412775806</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.519334321321859</v>
+        <v>1.79339316417831</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1.304312434193714</v>
+        <v>1.554776043346457</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1.851479986483586</v>
+        <v>1.316687436596718</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.516560109664595</v>
+        <v>1.578845282516551</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.51232707228097</v>
+        <v>1.415605102055208</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.487632826981735</v>
+        <v>1.533202814366128</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.398789975868071</v>
+        <v>1.575893540936155</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1.555738121868518</v>
+        <v>1.678803843799324</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.131780539387879</v>
+        <v>1.183147577338619</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.494548767429131</v>
+        <v>1.650356249263279</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.370772761774015</v>
+        <v>1.592793623860819</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1.524336920311423</v>
+        <v>1.573039178907026</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.421756062375044</v>
+        <v>1.493541267953127</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1.751601393921025</v>
+        <v>1.598949123090236</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.552940813124505</v>
+        <v>1.511351613089876</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.438937344955936</v>
+        <v>1.446981980403268</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.578463609223167</v>
+        <v>1.714249014774022</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.340089709468654</v>
+        <v>1.534791851635853</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.384158267268927</v>
+        <v>1.481200293827899</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.299856727418873</v>
+        <v>1.455357097539818</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.312822765851365</v>
+        <v>1.478783475087691</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.635221104405753</v>
+        <v>1.488352303304914</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.82907847527886</v>
+        <v>1.564045833473234</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.504687496806552</v>
+        <v>1.597917505368341</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.278249457486429</v>
+        <v>1.603109553167565</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.383960712857816</v>
+        <v>1.56652956781138</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.300960754752879</v>
+        <v>1.254790676838973</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.655882102701492</v>
+        <v>1.587222285212325</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.233301460453366</v>
+        <v>1.328347538518041</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1.89357799664822</v>
+        <v>1.45473108605443</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.702811017427644</v>
+        <v>1.55426748253964</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.449865185532687</v>
+        <v>1.749508323512843</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.499256759226661</v>
+        <v>1.208142819027089</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.553430815575381</v>
+        <v>1.494050973860419</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.60687322190933</v>
+        <v>1.655932246590123</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.552317162993434</v>
+        <v>1.630554036163097</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.276602211464942</v>
+        <v>1.798995564402342</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.512081165659587</v>
+        <v>1.208317194631723</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.597416814887676</v>
+        <v>1.63457819588649</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.736292379195663</v>
+        <v>1.837453977382416</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.428135948268973</v>
+        <v>1.1608500588593</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.474562829607983</v>
+        <v>1.876306982804811</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>1.444207691274081</v>
+        <v>1.39846256617038</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.598961786282838</v>
+        <v>1.398353268014414</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.363924562339385</v>
+        <v>1.37178434362886</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.672608055319293</v>
+        <v>1.380127262990709</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.30332108699617</v>
+        <v>1.634664635462307</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1.342419129765658</v>
+        <v>1.444093127983111</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.333367152147133</v>
+        <v>1.787267667302423</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.586929484882464</v>
+        <v>1.699810098336733</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>1.613381982323532</v>
+        <v>1.479814147477947</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.505832062041668</v>
+        <v>1.382691326961132</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.640236986708661</v>
+        <v>1.438060037097624</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1.547766308268214</v>
+        <v>1.593492556224591</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.534370083326336</v>
+        <v>1.533160341107236</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.449108844474502</v>
+        <v>1.420832392043145</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.784614090372574</v>
+        <v>1.630939905700725</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.561121161984688</v>
+        <v>1.314865905437368</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1.357708738037202</v>
+        <v>1.437827650418576</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.361280428789566</v>
+        <v>1.879621295676538</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.41257952275726</v>
+        <v>1.487204277149724</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.737084587535198</v>
+        <v>1.519260265106212</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.389985864962012</v>
+        <v>1.753586935236787</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>1.55124317333065</v>
+        <v>1.394351954099173</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.460094731509643</v>
+        <v>1.612949089564262</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.50856944533036</v>
+        <v>1.645210069719832</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.569026830877726</v>
+        <v>1.623270246277087</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.491597741347089</v>
+        <v>1.477445040385287</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.128274829593743</v>
+        <v>1.578250884862085</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.490998527820251</v>
+        <v>1.329166819904843</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.192984793284821</v>
+        <v>1.596632673764276</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.58032839627344</v>
+        <v>1.636808919897525</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.089429328210805</v>
+        <v>1.472877669912368</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.468129431320107</v>
+        <v>1.414730520137411</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.615008095700903</v>
+        <v>1.415915548470882</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.643696474700834</v>
+        <v>1.442728593693799</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.547738183416814</v>
+        <v>1.326490909176954</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>1.570136060793508</v>
+        <v>1.616402855182308</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.337755760010905</v>
+        <v>1.462256029296565</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.301397034925001</v>
+        <v>1.490718966757492</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.266010668196467</v>
+        <v>1.330552117374221</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.337361596473998</v>
+        <v>1.27765142232854</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1.624565286128534</v>
+        <v>1.327739110959019</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>1.525148922971181</v>
+        <v>1.569299392638111</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.430082910617718</v>
+        <v>1.319425466434183</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.679640522778652</v>
+        <v>1.547737540543198</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>1.639897128284352</v>
+        <v>1.518688544129648</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <v>1.383832913418386</v>
+        <v>1.44952739057672</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.708204682009329</v>
+        <v>1.318503385816107</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.63030394733038</v>
+        <v>1.510098546599768</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.764045769502066</v>
+        <v>1.639253740599684</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.630771958803062</v>
+        <v>1.544359478666764</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.391979086521025</v>
+        <v>1.709309168849881</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.440763531615831</v>
+        <v>1.496384596933204</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.589681932530173</v>
+        <v>1.262713037496642</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.522070975235408</v>
+        <v>1.452871146907178</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.436674142797136</v>
+        <v>1.475571762621676</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.252039093451945</v>
+        <v>1.556082402451704</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.532275413933446</v>
+        <v>1.241279920110918</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.533246158760651</v>
+        <v>1.405313041313758</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.543693413174338</v>
+        <v>1.413524441421005</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.334239021799988</v>
+        <v>1.531971363723694</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.736367714790433</v>
+        <v>1.280486410268407</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.467142159490324</v>
+        <v>1.378335515694173</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.549225318032038</v>
+        <v>1.293280720635344</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.457236340377856</v>
+        <v>1.52899955063269</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.399196521254876</v>
+        <v>1.589501602686273</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.668814800064601</v>
+        <v>1.431429142213273</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.649011291180153</v>
+        <v>1.539649004675081</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.495677160149856</v>
+        <v>1.832899396016655</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.545220833989627</v>
+        <v>1.524202059820835</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.585702576610813</v>
+        <v>1.416545782892272</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.578593287419921</v>
+        <v>1.414309087025591</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.260122410241034</v>
+        <v>1.471912560221653</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.439198493058843</v>
+        <v>1.589937438464119</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.467986841675131</v>
+        <v>1.579339527435429</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.469073718196169</v>
+        <v>1.594729772240071</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.430367217733453</v>
+        <v>1.547467768236703</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.904320899457793</v>
+        <v>1.457679049976608</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>1.397525853638355</v>
+        <v>1.598427775894591</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.444019740903116</v>
+        <v>1.452532442425001</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.5092574279023</v>
+        <v>1.592631912156364</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.605166520805904</v>
+        <v>1.242167892040398</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.246205191200635</v>
+        <v>1.266715303737769</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.086938058481958</v>
+        <v>1.471148979284223</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.455850731209463</v>
+        <v>1.642314487596974</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.461849058111923</v>
+        <v>1.298770665805811</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>1.383061347491634</v>
+        <v>1.425707650969167</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>1.200430173579647</v>
+        <v>1.865135055391377</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>1.635015115137584</v>
+        <v>1.438297653932378</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.622158328979794</v>
+        <v>1.575391823191086</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.507837477011859</v>
+        <v>1.507423575151065</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.674440352391919</v>
+        <v>1.438463894483304</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1.508757735037123</v>
+        <v>1.820837617143484</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.43958191569064</v>
+        <v>1.376624524498853</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.43346496960064</v>
+        <v>1.611637658619611</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.534933439162586</v>
+        <v>1.431604343499553</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.681153777044915</v>
+        <v>1.526484058437955</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.383491040869307</v>
+        <v>1.452353244559497</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>1.424048617509056</v>
+        <v>1.417630235736444</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.416373389804291</v>
+        <v>1.702499954970046</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.482979497249802</v>
+        <v>1.442957778414351</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>1.408122248008195</v>
+        <v>1.673935245951929</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.679199915420586</v>
+        <v>1.598743452951546</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>1.434506734490171</v>
+        <v>1.501113920914668</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.728595658308836</v>
+        <v>1.48370441860368</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.597393468632749</v>
+        <v>1.618976380455144</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.524091022751531</v>
+        <v>1.408732200434277</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>1.39742564223705</v>
+        <v>1.663762051705451</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.454409676599626</v>
+        <v>1.297120947645601</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.453960908487881</v>
+        <v>1.630369050655953</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.438727739978234</v>
+        <v>1.438238945619316</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.885005880512558</v>
+        <v>1.410422017240128</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>1.502216007053038</v>
+        <v>1.45385452147667</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.510640199181548</v>
+        <v>1.450209773736492</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.609776979010871</v>
+        <v>1.584616641299718</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.761796338692013</v>
+        <v>1.420785024438139</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.383075924826765</v>
+        <v>1.644622146704245</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
-        <v>1.591591954494808</v>
+        <v>1.211900232692137</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.387857469595649</v>
+        <v>1.547436919869399</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>1.382035617390085</v>
+        <v>1.403988013142422</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193">
-        <v>1.373353476851242</v>
+        <v>1.615121313133233</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.224419852315678</v>
+        <v>1.620238629046535</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.460215270695814</v>
+        <v>1.554514087113986</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.468952319990635</v>
+        <v>1.378725355688488</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.624553102944338</v>
+        <v>1.501112399893886</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.521629329368735</v>
+        <v>1.38219580733229</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>1.558677326323733</v>
+        <v>1.498931454362522</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.654142152122596</v>
+        <v>1.650341965082272</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.474550199683588</v>
+        <v>1.494504108434586</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.463928210970477</v>
+        <v>1.671066760162205</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.338102339358479</v>
+        <v>1.2233210790931</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1.430860117222366</v>
+        <v>1.317127342373619</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.439381347888465</v>
+        <v>1.436978663942483</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.597915082876686</v>
+        <v>1.599690179030465</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.49584223659403</v>
+        <v>1.590572057380572</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.578046179135035</v>
+        <v>1.432639845945782</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.279495867700949</v>
+        <v>1.689716092718708</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.204298581659868</v>
+        <v>1.585181554287861</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.755365336060482</v>
+        <v>1.690005772183563</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.62361242324</v>
+        <v>1.363668380716701</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>1.620965307971277</v>
+        <v>1.13980706568117</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.543930455631065</v>
+        <v>1.223416173836245</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.593204447884037</v>
+        <v>1.392855261822515</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.324194887217496</v>
+        <v>1.554918171551418</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.525924782863736</v>
+        <v>1.677802394542919</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>1.402504970349848</v>
+        <v>1.362479770334884</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.609811857061969</v>
+        <v>1.527854058404309</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.485931910276434</v>
+        <v>1.51623806899792</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.413327673576451</v>
+        <v>1.520581829647432</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.605243925027194</v>
+        <v>1.531933135565482</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.7088963281673</v>
+        <v>1.752368324533688</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.677550955810164</v>
+        <v>1.603442727189264</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.687160011374451</v>
+        <v>1.684188511718172</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.633381140467264</v>
+        <v>1.414920905729799</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.355342348469424</v>
+        <v>1.238955113640495</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.452129436142433</v>
+        <v>1.456242013463501</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.295372160300092</v>
+        <v>1.827296682684248</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.345616795775251</v>
+        <v>1.134551903074188</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.339682001497254</v>
+        <v>1.323088965617938</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232">
-        <v>1.457797542615487</v>
+        <v>1.483532234809428</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.560478270653321</v>
+        <v>1.325377381374716</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.460759959722079</v>
+        <v>1.530331764856949</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.925280044410091</v>
+        <v>1.515442988267402</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.497031567817781</v>
+        <v>1.618577199595049</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.28613561802062</v>
+        <v>1.316459091015505</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.373169018588968</v>
+        <v>1.666544706322923</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
-        <v>1.42653871981321</v>
+        <v>1.613075468830098</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.507140817432715</v>
+        <v>1.587186199199979</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.684173074833434</v>
+        <v>1.641852329791727</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242">
-        <v>1.654876114875737</v>
+        <v>1.44364634827201</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.392096279989951</v>
+        <v>1.395486053687605</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244">
-        <v>1.593430311854535</v>
+        <v>1.501534482329299</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.456545988758703</v>
+        <v>1.633799166808339</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.510988007016425</v>
+        <v>1.468233172721455</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.458555672676626</v>
+        <v>1.493972981077794</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>1.366785765011676</v>
+        <v>1.600887379353085</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.575406505603736</v>
+        <v>1.378150627399476</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.219954371283233</v>
+        <v>1.579417350189417</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>1.765331705021483</v>
+        <v>1.600276463384499</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.659616075525302</v>
+        <v>1.823898591063704</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.481046425254761</v>
+        <v>1.219428077248458</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254">
-        <v>1.598890109666985</v>
+        <v>1.435548396105845</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.593752867463113</v>
+        <v>1.467412148872473</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F256">
-        <v>1.405491400699437</v>
+        <v>1.412273771593753</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.309794136412849</v>
+        <v>1.653688694596027</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/15_localizer.xlsx
+++ b/sequences/15_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>face</t>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
   </si>
   <si>
     <t>dog/dog040.jpg</t>
   </si>
   <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
   </si>
   <si>
     <t>dog/dog036.jpg</t>
   </si>
   <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
     <t>flower/flower041.jpg</t>
   </si>
   <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
     <t>flower/flower038.jpg</t>
   </si>
   <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
   </si>
   <si>
     <t>house/house048.jpg</t>
   </si>
   <si>
-    <t>dog/dog062.jpg</t>
+    <t>dog/dog051.jpg</t>
   </si>
   <si>
     <t>flower/flower051.jpg</t>
   </si>
   <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
     <t>face/face051.jpg</t>
   </si>
   <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
   </si>
   <si>
     <t>house/house054.jpg</t>
   </si>
   <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
   </si>
   <si>
     <t>flower/flower050.jpg</t>
   </si>
   <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
   </si>
   <si>
     <t>dog/dog074.jpg</t>
   </si>
   <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
     <t>face/face077.jpg</t>
   </si>
   <si>
-    <t>dog/dog072.jpg</t>
+    <t>flower/flower069.jpg</t>
   </si>
   <si>
     <t>house/house071.jpg</t>
   </si>
   <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
     <t>house/house064.jpg</t>
   </si>
   <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
     <t>house/house076.jpg</t>
   </si>
   <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
   </si>
   <si>
     <t>house/house083.jpg</t>
   </si>
   <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
     <t>house/house084.jpg</t>
   </si>
   <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
   </si>
   <si>
     <t>house/house088.jpg</t>
   </si>
   <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
     <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.694706330543677</v>
+        <v>1.613228803309272</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.600668020581668</v>
+        <v>1.410557361640697</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.509991269266873</v>
+        <v>1.376278369932677</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1.588622188015828</v>
+        <v>1.384485444753658</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.64555304303006</v>
+        <v>1.543712776023785</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.403714344433912</v>
+        <v>1.583925905511492</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.279823864509584</v>
+        <v>1.65071295947269</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.368231509723962</v>
+        <v>1.484007937084532</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.12547614755827</v>
+        <v>1.408996477244508</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.717536862783574</v>
+        <v>1.517734959250437</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.295818259553815</v>
+        <v>1.564313449881474</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.403209258685319</v>
+        <v>1.643732070616797</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.573827650521979</v>
+        <v>1.656140807857478</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.658261059982219</v>
+        <v>1.29612008066954</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.443068244228695</v>
+        <v>1.542039515423383</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1.390560818581118</v>
+        <v>1.291551733900778</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.557526546050416</v>
+        <v>1.37160003671061</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.524670299600421</v>
+        <v>1.244246410974422</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.620260512012657</v>
+        <v>1.773573730855086</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.445546082142652</v>
+        <v>1.511706202860138</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.543640456271212</v>
+        <v>1.383691918968569</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.427075315627249</v>
+        <v>1.398222127145998</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.520106391080566</v>
+        <v>1.577442274252467</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.531229419484452</v>
+        <v>1.512632941663497</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.439542757117187</v>
+        <v>1.507357163656732</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1.414171230650409</v>
+        <v>1.572064797946852</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.40289552128088</v>
+        <v>1.290761049405998</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.460451054334224</v>
+        <v>1.507957534796654</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.511661939596828</v>
+        <v>1.473513047959975</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.626522412775806</v>
+        <v>1.535167116374726</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.79339316417831</v>
+        <v>1.213408998532798</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.554776043346457</v>
+        <v>1.602685868747108</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.316687436596718</v>
+        <v>1.650250251452294</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.578845282516551</v>
+        <v>1.184707883868984</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.415605102055208</v>
+        <v>1.636652886441053</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.533202814366128</v>
+        <v>1.683611313014672</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.575893540936155</v>
+        <v>1.685131468120657</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>1.678803843799324</v>
+        <v>1.784723510387809</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.183147577338619</v>
+        <v>1.417298172164381</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.650356249263279</v>
+        <v>1.376897043212532</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.592793623860819</v>
+        <v>1.320183279408067</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.573039178907026</v>
+        <v>1.640436024163234</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.493541267953127</v>
+        <v>1.481615899152267</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.598949123090236</v>
+        <v>1.478921250283621</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.511351613089876</v>
+        <v>1.281162753015453</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1.446981980403268</v>
+        <v>1.69186740747196</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.714249014774022</v>
+        <v>1.358346496914444</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.534791851635853</v>
+        <v>1.5064371894128</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.481200293827899</v>
+        <v>1.643721920847768</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.455357097539818</v>
+        <v>1.435171072488465</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.478783475087691</v>
+        <v>1.545011925461081</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.488352303304914</v>
+        <v>1.3725659871754</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.564045833473234</v>
+        <v>1.435551426305177</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.597917505368341</v>
+        <v>1.472180895758205</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.603109553167565</v>
+        <v>1.422844910938917</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.56652956781138</v>
+        <v>1.391033327744438</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>1.254790676838973</v>
+        <v>1.656915989182521</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.587222285212325</v>
+        <v>1.114307604400945</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.328347538518041</v>
+        <v>1.810838160646937</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.45473108605443</v>
+        <v>1.407558734187429</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.55426748253964</v>
+        <v>1.625326494249377</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1.749508323512843</v>
+        <v>1.763468152302003</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1.208142819027089</v>
+        <v>1.424645537013217</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.494050973860419</v>
+        <v>1.710792080992906</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.655932246590123</v>
+        <v>1.422453398325745</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.630554036163097</v>
+        <v>1.875121141865038</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.798995564402342</v>
+        <v>1.27192956999359</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.208317194631723</v>
+        <v>1.322739900856559</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.63457819588649</v>
+        <v>1.544236343628213</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.837453977382416</v>
+        <v>1.268776221729577</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.1608500588593</v>
+        <v>1.465723713066397</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.876306982804811</v>
+        <v>1.530802019083681</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.39846256617038</v>
+        <v>1.341968296965347</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.398353268014414</v>
+        <v>1.126395481111239</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.37178434362886</v>
+        <v>1.447024672024972</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.380127262990709</v>
+        <v>1.505458742566728</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.634664635462307</v>
+        <v>1.464120456347504</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1.444093127983111</v>
+        <v>1.366947695628412</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.787267667302423</v>
+        <v>1.568593259589256</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.699810098336733</v>
+        <v>1.557375328059591</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1.479814147477947</v>
+        <v>1.338263595393828</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.382691326961132</v>
+        <v>1.530846912406624</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.438060037097624</v>
+        <v>1.586748327582849</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.593492556224591</v>
+        <v>1.433838613085108</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.533160341107236</v>
+        <v>1.254957559636273</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.420832392043145</v>
+        <v>1.643321515595529</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>1.630939905700725</v>
+        <v>1.501487151992854</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.314865905437368</v>
+        <v>1.184289870662205</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.437827650418576</v>
+        <v>1.413191266676381</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.879621295676538</v>
+        <v>1.367753225294392</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.487204277149724</v>
+        <v>1.273541313378201</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.519260265106212</v>
+        <v>1.576474729468491</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1.753586935236787</v>
+        <v>1.491319223878669</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1.394351954099173</v>
+        <v>1.571586677249115</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.612949089564262</v>
+        <v>1.202989159774561</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.645210069719832</v>
+        <v>1.510553369134101</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.623270246277087</v>
+        <v>1.682749616896761</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.477445040385287</v>
+        <v>1.508680579161827</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.578250884862085</v>
+        <v>1.472511965366958</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1.329166819904843</v>
+        <v>1.467217282711593</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.596632673764276</v>
+        <v>1.696680313006134</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.636808919897525</v>
+        <v>1.549711140748951</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.472877669912368</v>
+        <v>1.617599032444411</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.414730520137411</v>
+        <v>1.417154651376388</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>1.415915548470882</v>
+        <v>1.449845373319767</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.442728593693799</v>
+        <v>1.475439912611727</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.326490909176954</v>
+        <v>1.404782980418313</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1.616402855182308</v>
+        <v>1.448258989473919</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.462256029296565</v>
+        <v>1.3035644567132</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.490718966757492</v>
+        <v>1.526789383383113</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.330552117374221</v>
+        <v>1.578596048668426</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.27765142232854</v>
+        <v>1.520622536821095</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.327739110959019</v>
+        <v>1.480302633996079</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.569299392638111</v>
+        <v>1.614394297975827</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>1.319425466434183</v>
+        <v>1.62912182577923</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.547737540543198</v>
+        <v>1.549651634546364</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.518688544129648</v>
+        <v>1.782149678331227</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.44952739057672</v>
+        <v>1.697948575685063</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.318503385816107</v>
+        <v>1.301106250780836</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>1.510098546599768</v>
+        <v>1.559836712597844</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.639253740599684</v>
+        <v>1.486014762639194</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.544359478666764</v>
+        <v>1.365639599233289</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.709309168849881</v>
+        <v>1.41539620793052</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.496384596933204</v>
+        <v>1.241986001674019</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1.262713037496642</v>
+        <v>1.513103989691208</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.452871146907178</v>
+        <v>1.654617819317246</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.475571762621676</v>
+        <v>1.543591298160845</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.556082402451704</v>
+        <v>1.522919516828263</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.241279920110918</v>
+        <v>1.798362177578826</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.405313041313758</v>
+        <v>1.306870422205353</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.413524441421005</v>
+        <v>1.619647525549713</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.531971363723694</v>
+        <v>1.060567684789088</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.280486410268407</v>
+        <v>1.174151339125497</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.378335515694173</v>
+        <v>1.499938093200932</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>1.293280720635344</v>
+        <v>1.452363381539506</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.52899955063269</v>
+        <v>1.392481089979942</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.589501602686273</v>
+        <v>1.654530786246535</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.431429142213273</v>
+        <v>1.449035235132662</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.539649004675081</v>
+        <v>1.698705014941214</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>1.832899396016655</v>
+        <v>1.359739394004116</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.524202059820835</v>
+        <v>1.535311116431419</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.416545782892272</v>
+        <v>1.455294276548595</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.414309087025591</v>
+        <v>1.432052337559836</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.471912560221653</v>
+        <v>1.384479959617684</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.589937438464119</v>
+        <v>1.556405706706072</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.579339527435429</v>
+        <v>1.549940097882111</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.594729772240071</v>
+        <v>1.618810374489466</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.547467768236703</v>
+        <v>1.598801031867872</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.457679049976608</v>
+        <v>1.543347519267842</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.598427775894591</v>
+        <v>1.484367025711613</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.452532442425001</v>
+        <v>1.310224621317556</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.592631912156364</v>
+        <v>1.319643844318176</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.242167892040398</v>
+        <v>1.762491622378841</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.266715303737769</v>
+        <v>1.438044789181445</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.471148979284223</v>
+        <v>1.627641289926136</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.642314487596974</v>
+        <v>1.410899950668345</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.298770665805811</v>
+        <v>1.281419554142374</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159">
-        <v>1.425707650969167</v>
+        <v>1.374953586357303</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1.865135055391377</v>
+        <v>1.548513574447632</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>1.438297653932378</v>
+        <v>1.569329949707564</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.575391823191086</v>
+        <v>1.652172342851438</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.507423575151065</v>
+        <v>1.515793524164027</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>1.438463894483304</v>
+        <v>1.415066454841885</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.820837617143484</v>
+        <v>1.633418840935109</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.376624524498853</v>
+        <v>1.478140779626529</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.611637658619611</v>
+        <v>1.581336477934562</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>1.431604343499553</v>
+        <v>1.67230012799974</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.526484058437955</v>
+        <v>1.723775203940193</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.452353244559497</v>
+        <v>1.587446751424439</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.417630235736444</v>
+        <v>1.656151447902358</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.702499954970046</v>
+        <v>1.377390093874086</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.442957778414351</v>
+        <v>1.516461951461069</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.673935245951929</v>
+        <v>1.303830735932532</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175">
-        <v>1.598743452951546</v>
+        <v>1.675569633379745</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.501113920914668</v>
+        <v>1.676568901083438</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.48370441860368</v>
+        <v>1.623127094794979</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>1.618976380455144</v>
+        <v>1.474069365260889</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.408732200434277</v>
+        <v>1.578349142341869</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1.663762051705451</v>
+        <v>1.668027750831931</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.297120947645601</v>
+        <v>1.737201248141872</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.630369050655953</v>
+        <v>1.374155071045325</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.438238945619316</v>
+        <v>1.598532326376037</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.410422017240128</v>
+        <v>1.694918023742396</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.45385452147667</v>
+        <v>1.547898547177736</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.450209773736492</v>
+        <v>1.514026974262967</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.584616641299718</v>
+        <v>1.402183359543927</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.420785024438139</v>
+        <v>1.460219704330994</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.644622146704245</v>
+        <v>1.324831017009523</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>1.211900232692137</v>
+        <v>1.689479256007052</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>1.547436919869399</v>
+        <v>1.464093829396539</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.403988013142422</v>
+        <v>1.551285508372054</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>1.615121313133233</v>
+        <v>1.453434152164637</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.620238629046535</v>
+        <v>1.685051905030982</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.554514087113986</v>
+        <v>1.230583681340999</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.378725355688488</v>
+        <v>1.645467931458746</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.501112399893886</v>
+        <v>1.321948443699147</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.38219580733229</v>
+        <v>1.489770719811472</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.498931454362522</v>
+        <v>1.689183675256194</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.650341965082272</v>
+        <v>1.516765887627447</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.494504108434586</v>
+        <v>1.491396841387838</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.671066760162205</v>
+        <v>1.534418020911241</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.2233210790931</v>
+        <v>1.631216738690657</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.317127342373619</v>
+        <v>1.557410080595364</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.436978663942483</v>
+        <v>1.328543962824612</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.599690179030465</v>
+        <v>1.34390171238039</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.590572057380572</v>
+        <v>1.361419482994854</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.432639845945782</v>
+        <v>1.376088468358187</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209">
-        <v>1.689716092718708</v>
+        <v>1.378899506313407</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210">
-        <v>1.585181554287861</v>
+        <v>1.597077341699598</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>1</v>
       </c>
       <c r="F211">
-        <v>1.690005772183563</v>
+        <v>1.695730210522258</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1.363668380716701</v>
+        <v>1.378646490576143</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.13980706568117</v>
+        <v>1.233006934343658</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.223416173836245</v>
+        <v>1.381303585592751</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.392855261822515</v>
+        <v>1.423446637052872</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.554918171551418</v>
+        <v>1.637212086516143</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.677802394542919</v>
+        <v>1.556974617862352</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>1.362479770334884</v>
+        <v>1.452387541593213</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.527854058404309</v>
+        <v>1.3700166312238</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.51623806899792</v>
+        <v>1.53438396610304</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.520581829647432</v>
+        <v>1.546460515435874</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>1.531933135565482</v>
+        <v>1.564417891483549</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.752368324533688</v>
+        <v>1.333388727222529</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.603442727189264</v>
+        <v>1.579089233079993</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.684188511718172</v>
+        <v>1.278292762751655</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.414920905729799</v>
+        <v>1.549894195099521</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.238955113640495</v>
+        <v>1.829763720610333</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.456242013463501</v>
+        <v>1.564820315876229</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.827296682684248</v>
+        <v>1.546153368774107</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.134551903074188</v>
+        <v>1.628413775114649</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.323088965617938</v>
+        <v>1.456762682288393</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1.483532234809428</v>
+        <v>1.49045019736688</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.325377381374716</v>
+        <v>1.821488188888395</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.530331764856949</v>
+        <v>1.69434449111017</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.515442988267402</v>
+        <v>1.350650209719128</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>1.618577199595049</v>
+        <v>1.567255204214244</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.316459091015505</v>
+        <v>1.414364263116174</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.666544706322923</v>
+        <v>1.678175464443232</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>1.613075468830098</v>
+        <v>1.634299545067992</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.587186199199979</v>
+        <v>1.311638991699914</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.641852329791727</v>
+        <v>1.345475110929188</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F242">
-        <v>1.44364634827201</v>
+        <v>1.553309375997869</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.395486053687605</v>
+        <v>1.652458791294157</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>1.501534482329299</v>
+        <v>1.433022052126199</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.633799166808339</v>
+        <v>1.759685736732838</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.468233172721455</v>
+        <v>1.551706778277854</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.493972981077794</v>
+        <v>1.348827223281449</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.600887379353085</v>
+        <v>1.587663835511486</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.378150627399476</v>
+        <v>1.638088701370066</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.579417350189417</v>
+        <v>1.415674599206678</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.600276463384499</v>
+        <v>1.383793759639366</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.823898591063704</v>
+        <v>1.707610378673114</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.219428077248458</v>
+        <v>1.579882189318543</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>1.435548396105845</v>
+        <v>1.376708843239449</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.467412148872473</v>
+        <v>1.583225893353722</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>1.412273771593753</v>
+        <v>1.508037823281787</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
-        <v>1.653688694596027</v>
+        <v>1.661909497854401</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/15_localizer.xlsx
+++ b/sequences/15_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
     <t>face</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
     <t>dog</t>
   </si>
   <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
     <t>flower/flower037.jpg</t>
   </si>
   <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
     <t>face/face042.jpg</t>
   </si>
   <si>
-    <t>face/face038.jpg</t>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
   </si>
   <si>
     <t>flower/flower040.jpg</t>
   </si>
   <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
     <t>dog/dog042.jpg</t>
   </si>
   <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
     <t>dog/dog033.jpg</t>
   </si>
   <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
   </si>
   <si>
     <t>dog/dog062.jpg</t>
   </si>
   <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
   </si>
   <si>
     <t>dog/dog050.jpg</t>
   </si>
   <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
   </si>
   <si>
     <t>flower/flower052.jpg</t>
   </si>
   <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
   </si>
   <si>
     <t>dog/dog078.jpg</t>
   </si>
   <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
     <t>flower/flower066.jpg</t>
   </si>
   <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
     <t>house/house074.jpg</t>
   </si>
   <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
   </si>
   <si>
     <t>flower/flower087.jpg</t>
   </si>
   <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
     <t>house/house093.jpg</t>
   </si>
   <si>
-    <t>face/face084.jpg</t>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
   </si>
   <si>
     <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.613228803309272</v>
+        <v>1.495112589389635</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.410557361640697</v>
+        <v>1.220221684928184</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.376278369932677</v>
+        <v>1.400170019310456</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.384485444753658</v>
+        <v>1.408056908049956</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.543712776023785</v>
+        <v>1.238923530488396</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.583925905511492</v>
+        <v>1.363512325876602</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.65071295947269</v>
+        <v>1.446223464245225</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.484007937084532</v>
+        <v>1.549341940661885</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.408996477244508</v>
+        <v>1.509853395348387</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.517734959250437</v>
+        <v>1.488970985937784</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.564313449881474</v>
+        <v>1.306482021205857</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.643732070616797</v>
+        <v>1.391592072242583</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.656140807857478</v>
+        <v>1.475024183168915</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.29612008066954</v>
+        <v>1.487880249793513</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.542039515423383</v>
+        <v>1.319707465015565</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.291551733900778</v>
+        <v>1.414706572487628</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.37160003671061</v>
+        <v>1.361588971510162</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1.244246410974422</v>
+        <v>1.502166351683163</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.773573730855086</v>
+        <v>1.446043513377344</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.511706202860138</v>
+        <v>1.309271476286908</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.383691918968569</v>
+        <v>1.771256391702834</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.398222127145998</v>
+        <v>1.302391296256244</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.577442274252467</v>
+        <v>1.604715515627942</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.512632941663497</v>
+        <v>1.652449338504027</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.507357163656732</v>
+        <v>1.650600912964155</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.572064797946852</v>
+        <v>1.492238409926925</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.290761049405998</v>
+        <v>1.329904804499422</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.507957534796654</v>
+        <v>1.742015875726334</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.473513047959975</v>
+        <v>1.546768423513638</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1.535167116374726</v>
+        <v>1.289193558793161</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.213408998532798</v>
+        <v>1.482050205003496</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.602685868747108</v>
+        <v>1.50547212886255</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.650250251452294</v>
+        <v>1.419933619547627</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.184707883868984</v>
+        <v>1.524172346319143</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.636652886441053</v>
+        <v>1.484232438547402</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.683611313014672</v>
+        <v>1.54897344161771</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.685131468120657</v>
+        <v>1.691506178954238</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1.784723510387809</v>
+        <v>1.613910911353328</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.417298172164381</v>
+        <v>1.590425552402524</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.376897043212532</v>
+        <v>1.616863604357811</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.320183279408067</v>
+        <v>1.461672871425716</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.640436024163234</v>
+        <v>1.423053548255247</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1.481615899152267</v>
+        <v>1.548642083932971</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.478921250283621</v>
+        <v>1.360538678482083</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.281162753015453</v>
+        <v>1.260182957686299</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.69186740747196</v>
+        <v>1.394132920832526</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.358346496914444</v>
+        <v>1.427068292773446</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.5064371894128</v>
+        <v>1.465251728146024</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.643721920847768</v>
+        <v>1.616139796684563</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1.435171072488465</v>
+        <v>1.23424934474784</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.545011925461081</v>
+        <v>1.734246482799575</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.3725659871754</v>
+        <v>1.504037042606945</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.435551426305177</v>
+        <v>1.585050454256963</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.472180895758205</v>
+        <v>1.691707634431387</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.422844910938917</v>
+        <v>1.685366506467697</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.391033327744438</v>
+        <v>1.56271512235521</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1.656915989182521</v>
+        <v>1.766277562847535</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.114307604400945</v>
+        <v>1.706744401930534</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.810838160646937</v>
+        <v>1.458196807015022</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.407558734187429</v>
+        <v>1.045902405516835</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.625326494249377</v>
+        <v>1.480455722874648</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1.763468152302003</v>
+        <v>1.41695543035772</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1.424645537013217</v>
+        <v>1.632929597810063</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.710792080992906</v>
+        <v>1.46540787505787</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1.422453398325745</v>
+        <v>1.58332195683883</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.875121141865038</v>
+        <v>1.393542861370167</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.27192956999359</v>
+        <v>1.308096915351336</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.322739900856559</v>
+        <v>1.566967340636693</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.544236343628213</v>
+        <v>1.126350717534139</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.268776221729577</v>
+        <v>1.328339384637021</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>1.465723713066397</v>
+        <v>1.701609361412971</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.530802019083681</v>
+        <v>1.695435520632073</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.341968296965347</v>
+        <v>1.193174458083938</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.126395481111239</v>
+        <v>1.550164556487998</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.447024672024972</v>
+        <v>1.431965164667609</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.505458742566728</v>
+        <v>1.620324313451938</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.464120456347504</v>
+        <v>1.574440894105901</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.366947695628412</v>
+        <v>1.531725782713409</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.568593259589256</v>
+        <v>1.580374895152353</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.557375328059591</v>
+        <v>1.472427867019122</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.338263595393828</v>
+        <v>1.567585994981875</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.530846912406624</v>
+        <v>1.727965154048047</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.586748327582849</v>
+        <v>1.450244132023622</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.433838613085108</v>
+        <v>1.398880018329461</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>1.254957559636273</v>
+        <v>1.418710882688067</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.643321515595529</v>
+        <v>1.456778831844475</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.501487151992854</v>
+        <v>1.473511827298522</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.184289870662205</v>
+        <v>1.728037895244839</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.413191266676381</v>
+        <v>1.392816756641779</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>1.367753225294392</v>
+        <v>1.50496026885302</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.273541313378201</v>
+        <v>1.7984748716999</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.576474729468491</v>
+        <v>1.739817096963876</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.491319223878669</v>
+        <v>1.56904836757706</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.571586677249115</v>
+        <v>1.501596100875302</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.202989159774561</v>
+        <v>1.422067176272999</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.510553369134101</v>
+        <v>1.281734948829662</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.682749616896761</v>
+        <v>1.423215556477779</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.508680579161827</v>
+        <v>1.47500118121189</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.472511965366958</v>
+        <v>1.761368366169919</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.467217282711593</v>
+        <v>1.472312650160558</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.696680313006134</v>
+        <v>1.44531888415491</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.549711140748951</v>
+        <v>1.271968286230573</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.617599032444411</v>
+        <v>1.418227137049777</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.417154651376388</v>
+        <v>1.522164302015401</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1.449845373319767</v>
+        <v>1.513097686627174</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1.475439912611727</v>
+        <v>1.608167149371024</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.404782980418313</v>
+        <v>1.361637934230447</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>1.448258989473919</v>
+        <v>1.566579463570758</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.3035644567132</v>
+        <v>1.421324540087496</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.526789383383113</v>
+        <v>1.564879710971783</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.578596048668426</v>
+        <v>1.582711899938173</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.520622536821095</v>
+        <v>1.437052050860538</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.480302633996079</v>
+        <v>1.60849809979034</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.614394297975827</v>
+        <v>1.50235795107503</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1.62912182577923</v>
+        <v>1.470053599218532</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.549651634546364</v>
+        <v>1.493774980049113</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.782149678331227</v>
+        <v>1.489530212675484</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.697948575685063</v>
+        <v>1.365061643037341</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.301106250780836</v>
+        <v>1.429485689984234</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>1.559836712597844</v>
+        <v>1.591786514598344</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.486014762639194</v>
+        <v>1.510733411264811</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.365639599233289</v>
+        <v>1.261118700109566</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.41539620793052</v>
+        <v>1.669957573569207</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.241986001674019</v>
+        <v>1.576271855211298</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.513103989691208</v>
+        <v>1.906121085689583</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.654617819317246</v>
+        <v>1.535104964600516</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.543591298160845</v>
+        <v>1.473480049024714</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.522919516828263</v>
+        <v>1.708629537377581</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.798362177578826</v>
+        <v>1.535721006605023</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.306870422205353</v>
+        <v>1.529964033938946</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.619647525549713</v>
+        <v>1.727818737378993</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.060567684789088</v>
+        <v>1.50739087286045</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.174151339125497</v>
+        <v>1.45744081501609</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.499938093200932</v>
+        <v>1.458281456148364</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1.452363381539506</v>
+        <v>1.134838502382205</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>1.392481089979942</v>
+        <v>1.655322727814331</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.654530786246535</v>
+        <v>1.560082516527375</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.449035235132662</v>
+        <v>1.157551225819236</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.698705014941214</v>
+        <v>1.392222634289855</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>1.359739394004116</v>
+        <v>1.713867247679677</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.535311116431419</v>
+        <v>1.305435452017505</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.455294276548595</v>
+        <v>1.501788492239271</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.432052337559836</v>
+        <v>1.088781909459659</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.384479959617684</v>
+        <v>1.577508281377432</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.556405706706072</v>
+        <v>1.726320353082384</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.549940097882111</v>
+        <v>1.668704520214788</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.618810374489466</v>
+        <v>1.641587159203148</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.598801031867872</v>
+        <v>1.412888315483716</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.543347519267842</v>
+        <v>1.396967705050301</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>1.484367025711613</v>
+        <v>1.762341769774088</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.310224621317556</v>
+        <v>1.212310578262592</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.319643844318176</v>
+        <v>1.142186555728112</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>1.762491622378841</v>
+        <v>1.555193567412733</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.438044789181445</v>
+        <v>1.482336725327779</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.627641289926136</v>
+        <v>1.607192470144558</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.410899950668345</v>
+        <v>1.669595460715339</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.281419554142374</v>
+        <v>1.533164469713753</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>1.374953586357303</v>
+        <v>1.484220738864452</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.548513574447632</v>
+        <v>1.114187515520249</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.569329949707564</v>
+        <v>1.610651499871878</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.652172342851438</v>
+        <v>1.423455364118384</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.515793524164027</v>
+        <v>1.450101563532584</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>1.415066454841885</v>
+        <v>1.518146365901672</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.633418840935109</v>
+        <v>1.835270623917333</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.478140779626529</v>
+        <v>1.529336874588651</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.581336477934562</v>
+        <v>1.464124864246757</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>1.67230012799974</v>
+        <v>1.648770352822768</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.723775203940193</v>
+        <v>1.559933887214533</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.587446751424439</v>
+        <v>1.519217440432867</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.656151447902358</v>
+        <v>1.482162433761996</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.377390093874086</v>
+        <v>1.503709486629243</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.516461951461069</v>
+        <v>1.622934743646479</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.303830735932532</v>
+        <v>1.534611894664598</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>1.675569633379745</v>
+        <v>1.60572184418794</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.676568901083438</v>
+        <v>1.321921780105112</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.623127094794979</v>
+        <v>1.507714516156422</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>1.474069365260889</v>
+        <v>1.627627276785254</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.578349142341869</v>
+        <v>1.549368529526467</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>1.668027750831931</v>
+        <v>1.291824314050069</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>1.737201248141872</v>
+        <v>1.496528555733238</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>1.374155071045325</v>
+        <v>1.335790325745334</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.598532326376037</v>
+        <v>1.114128323024515</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.694918023742396</v>
+        <v>1.61326142593308</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.547898547177736</v>
+        <v>1.765516765270922</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.514026974262967</v>
+        <v>1.256612718498276</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.402183359543927</v>
+        <v>1.577888018982328</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.460219704330994</v>
+        <v>1.501217125234649</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.324831017009523</v>
+        <v>1.512082641721384</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.689479256007052</v>
+        <v>1.463822715553946</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="F191">
-        <v>1.464093829396539</v>
+        <v>1.593073506260869</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.551285508372054</v>
+        <v>1.435865467881546</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.453434152164637</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.685051905030982</v>
+        <v>1.601074093041828</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.230583681340999</v>
+        <v>1.810304402483956</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.645467931458746</v>
+        <v>1.71885104266124</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.321948443699147</v>
+        <v>1.51923962298897</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.489770719811472</v>
+        <v>1.721781197763875</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.689183675256194</v>
+        <v>1.491468683762722</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>1.516765887627447</v>
+        <v>1.587168253664568</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1.491396841387838</v>
+        <v>1.300037893796756</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.534418020911241</v>
+        <v>1.293807702832298</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.631216738690657</v>
+        <v>1.415958156378414</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.557410080595364</v>
+        <v>1.286374597976068</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.328543962824612</v>
+        <v>1.252651726528283</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206">
-        <v>1.34390171238039</v>
+        <v>1.606569686551125</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.361419482994854</v>
+        <v>1.476803576753471</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.376088468358187</v>
+        <v>1.379822077206382</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>1.378899506313407</v>
+        <v>1.658691541337872</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>1.597077341699598</v>
+        <v>1.847669797907531</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.695730210522258</v>
+        <v>1.483792686126197</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>1</v>
       </c>
       <c r="F212">
-        <v>1.378646490576143</v>
+        <v>1.450865801716538</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.233006934343658</v>
+        <v>1.484482411476701</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.381303585592751</v>
+        <v>1.525298217452338</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.423446637052872</v>
+        <v>1.740388555275281</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.637212086516143</v>
+        <v>1.661691347111531</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.556974617862352</v>
+        <v>1.587106976546699</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.452387541593213</v>
+        <v>1.481283233609339</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.3700166312238</v>
+        <v>1.547501417284526</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.53438396610304</v>
+        <v>1.436595875321734</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.546460515435874</v>
+        <v>1.46955547046549</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>1.564417891483549</v>
+        <v>1.53619218685886</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.333388727222529</v>
+        <v>1.395086843419712</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.579089233079993</v>
+        <v>1.638370553084471</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.278292762751655</v>
+        <v>1.798753188672213</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.549894195099521</v>
+        <v>1.474759813453623</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.829763720610333</v>
+        <v>1.472498219522089</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.564820315876229</v>
+        <v>1.180000488070934</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.546153368774107</v>
+        <v>1.353696090758543</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.628413775114649</v>
+        <v>1.592463191794407</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.456762682288393</v>
+        <v>1.519722431063277</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.49045019736688</v>
+        <v>1.567783527254499</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.821488188888395</v>
+        <v>1.270729526100706</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.69434449111017</v>
+        <v>1.45478816552067</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.350650209719128</v>
+        <v>1.356259564724529</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1.567255204214244</v>
+        <v>1.633499717989828</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237">
-        <v>1.414364263116174</v>
+        <v>1.782494387794489</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.678175464443232</v>
+        <v>1.509495617449715</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.634299545067992</v>
+        <v>1.546020812356573</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.311638991699914</v>
+        <v>1.215645991595963</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.345475110929188</v>
+        <v>1.43176359222075</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F242">
-        <v>1.553309375997869</v>
+        <v>1.479926875714396</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.652458791294157</v>
+        <v>1.587254131111363</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.433022052126199</v>
+        <v>1.263951374734437</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.759685736732838</v>
+        <v>1.431377164398321</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.551706778277854</v>
+        <v>1.529820841832388</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.348827223281449</v>
+        <v>1.295495168463072</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.587663835511486</v>
+        <v>1.77611237710709</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.638088701370066</v>
+        <v>1.419146686699561</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.415674599206678</v>
+        <v>1.617053929933306</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.383793759639366</v>
+        <v>1.526143532736342</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.707610378673114</v>
+        <v>1.357649926153808</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253">
-        <v>1.579882189318543</v>
+        <v>1.691400505624586</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.376708843239449</v>
+        <v>1.377926865874254</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.583225893353722</v>
+        <v>1.597424823257576</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.508037823281787</v>
+        <v>1.394922711075825</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>1.661909497854401</v>
+        <v>1.53369579603774</v>
       </c>
     </row>
   </sheetData>
